--- a/Document/캐릭터/캐릭터.xlsx
+++ b/Document/캐릭터/캐릭터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\Document\캐릭터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F56168-6384-4E82-8764-AB3CFA7808E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E64B46-9EEC-405E-A4E7-9992CE0C028A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
@@ -285,6 +285,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>280145</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>773206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4101136</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2442882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4E5AB7-488B-7333-409B-2FB445E5F7F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8269939" y="1479177"/>
+          <a:ext cx="3820991" cy="1669676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>649941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4179795</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2527465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160D71E7-25E3-C60C-7E0A-EBA559EABC67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124265" y="11306735"/>
+          <a:ext cx="4045324" cy="1877524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>403412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3903485</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2594468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BF60F8-99F9-5757-197A-7091E898A1C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8482853" y="14377147"/>
+          <a:ext cx="3410426" cy="2191056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
   <dimension ref="B3:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -597,7 +734,7 @@
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
-    <col min="8" max="8" width="43.5" customWidth="1"/>
+    <col min="8" max="8" width="56.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -623,7 +760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -644,7 +781,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -659,7 +796,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -673,7 +810,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -694,7 +831,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -715,7 +852,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -736,7 +873,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -757,7 +894,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -775,5 +912,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>